--- a/database/csv/gamut_drafts.xlsx
+++ b/database/csv/gamut_drafts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\new_gmao\database\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220A6836-01B0-402B-BC92-8773CA2EEFCF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC45FAD-B6D1-40EB-9CD7-74DC0C75A0CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9F9E8E22-908D-4CBC-A9F4-793E41FFAE8E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9F9E8E22-908D-4CBC-A9F4-793E41FFAE8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -168,9 +168,6 @@
     <t>equipment_code</t>
   </si>
   <si>
-    <t>TAR</t>
-  </si>
-  <si>
     <t>BC31Q</t>
   </si>
   <si>
@@ -487,16 +484,25 @@
   </si>
   <si>
     <t>Broyeur - Table Cpl</t>
+  </si>
+  <si>
+    <t>TAR-4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -840,8 +846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B843F702-A3E0-498A-93FB-4BF3D9E20E6D}">
   <dimension ref="A1:J98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -857,19 +863,19 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" t="s">
         <v>116</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>117</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>118</v>
-      </c>
-      <c r="E1" t="s">
-        <v>119</v>
       </c>
       <c r="F1" t="s">
         <v>42</v>
@@ -878,13 +884,13 @@
         <v>43</v>
       </c>
       <c r="H1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1" t="s">
         <v>113</v>
       </c>
-      <c r="I1" t="s">
-        <v>114</v>
-      </c>
       <c r="J1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -892,7 +898,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -910,10 +916,10 @@
         <v>12</v>
       </c>
       <c r="H2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I2" t="s">
         <v>44</v>
-      </c>
-      <c r="I2" t="s">
-        <v>45</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -924,7 +930,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -942,10 +948,10 @@
         <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -956,7 +962,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -974,10 +980,10 @@
         <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -988,7 +994,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
@@ -1006,10 +1012,10 @@
         <v>13</v>
       </c>
       <c r="H5" t="s">
+        <v>150</v>
+      </c>
+      <c r="I5" t="s">
         <v>44</v>
-      </c>
-      <c r="I5" t="s">
-        <v>45</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -1020,7 +1026,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
@@ -1038,10 +1044,10 @@
         <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -1052,7 +1058,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
@@ -1070,10 +1076,10 @@
         <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -1084,7 +1090,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C8" t="s">
         <v>3</v>
@@ -1102,10 +1108,10 @@
         <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -1116,7 +1122,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C9" t="s">
         <v>3</v>
@@ -1134,10 +1140,10 @@
         <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -1148,7 +1154,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C10" t="s">
         <v>3</v>
@@ -1166,10 +1172,10 @@
         <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1180,7 +1186,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C11" t="s">
         <v>3</v>
@@ -1198,10 +1204,10 @@
         <v>15</v>
       </c>
       <c r="H11" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -1212,7 +1218,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C12" t="s">
         <v>3</v>
@@ -1230,10 +1236,10 @@
         <v>15</v>
       </c>
       <c r="H12" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -1244,7 +1250,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C13" t="s">
         <v>3</v>
@@ -1262,10 +1268,10 @@
         <v>15</v>
       </c>
       <c r="H13" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -1276,7 +1282,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C14" t="s">
         <v>3</v>
@@ -1294,10 +1300,10 @@
         <v>16</v>
       </c>
       <c r="H14" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -1308,7 +1314,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C15" t="s">
         <v>3</v>
@@ -1326,10 +1332,10 @@
         <v>16</v>
       </c>
       <c r="H15" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -1340,7 +1346,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C16" t="s">
         <v>3</v>
@@ -1358,10 +1364,10 @@
         <v>16</v>
       </c>
       <c r="H16" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -1372,7 +1378,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C17" t="s">
         <v>3</v>
@@ -1390,10 +1396,10 @@
         <v>17</v>
       </c>
       <c r="H17" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -1404,7 +1410,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C18" t="s">
         <v>3</v>
@@ -1422,10 +1428,10 @@
         <v>18</v>
       </c>
       <c r="H18" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -1436,7 +1442,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C19" t="s">
         <v>3</v>
@@ -1454,10 +1460,10 @@
         <v>19</v>
       </c>
       <c r="H19" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -1486,10 +1492,10 @@
         <v>20</v>
       </c>
       <c r="H20" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -1518,10 +1524,10 @@
         <v>20</v>
       </c>
       <c r="H21" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -1550,10 +1556,10 @@
         <v>20</v>
       </c>
       <c r="H22" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -1564,7 +1570,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C23" t="s">
         <v>3</v>
@@ -1582,10 +1588,10 @@
         <v>21</v>
       </c>
       <c r="H23" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -1596,7 +1602,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C24" t="s">
         <v>3</v>
@@ -1614,10 +1620,10 @@
         <v>21</v>
       </c>
       <c r="H24" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J24">
         <v>1</v>
@@ -1628,7 +1634,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C25" t="s">
         <v>3</v>
@@ -1646,10 +1652,10 @@
         <v>21</v>
       </c>
       <c r="H25" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J25">
         <v>1</v>
@@ -1660,7 +1666,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C26" t="s">
         <v>3</v>
@@ -1678,10 +1684,10 @@
         <v>21</v>
       </c>
       <c r="H26" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J26">
         <v>1</v>
@@ -1692,7 +1698,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C27" t="s">
         <v>3</v>
@@ -1710,10 +1716,10 @@
         <v>22</v>
       </c>
       <c r="H27" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -1724,7 +1730,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C28" t="s">
         <v>3</v>
@@ -1742,10 +1748,10 @@
         <v>22</v>
       </c>
       <c r="H28" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J28">
         <v>1</v>
@@ -1756,7 +1762,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C29" t="s">
         <v>3</v>
@@ -1774,10 +1780,10 @@
         <v>12</v>
       </c>
       <c r="H29" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J29">
         <v>1</v>
@@ -1788,7 +1794,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C30" t="s">
         <v>3</v>
@@ -1806,10 +1812,10 @@
         <v>12</v>
       </c>
       <c r="H30" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J30">
         <v>1</v>
@@ -1820,7 +1826,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C31" t="s">
         <v>3</v>
@@ -1838,10 +1844,10 @@
         <v>12</v>
       </c>
       <c r="H31" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J31">
         <v>1</v>
@@ -1852,7 +1858,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C32" t="s">
         <v>3</v>
@@ -1870,10 +1876,10 @@
         <v>13</v>
       </c>
       <c r="H32" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J32">
         <v>1</v>
@@ -1884,7 +1890,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C33" t="s">
         <v>3</v>
@@ -1902,10 +1908,10 @@
         <v>13</v>
       </c>
       <c r="H33" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J33">
         <v>1</v>
@@ -1916,7 +1922,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C34" t="s">
         <v>3</v>
@@ -1934,10 +1940,10 @@
         <v>13</v>
       </c>
       <c r="H34" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J34">
         <v>1</v>
@@ -1948,7 +1954,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C35" t="s">
         <v>3</v>
@@ -1966,10 +1972,10 @@
         <v>23</v>
       </c>
       <c r="H35" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J35">
         <v>1</v>
@@ -1980,7 +1986,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C36" t="s">
         <v>3</v>
@@ -1998,10 +2004,10 @@
         <v>23</v>
       </c>
       <c r="H36" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J36">
         <v>1</v>
@@ -2012,7 +2018,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C37" t="s">
         <v>3</v>
@@ -2030,10 +2036,10 @@
         <v>23</v>
       </c>
       <c r="H37" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J37">
         <v>1</v>
@@ -2044,7 +2050,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C38" t="s">
         <v>3</v>
@@ -2062,10 +2068,10 @@
         <v>23</v>
       </c>
       <c r="H38" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J38">
         <v>1</v>
@@ -2076,7 +2082,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C39" t="s">
         <v>3</v>
@@ -2094,10 +2100,10 @@
         <v>23</v>
       </c>
       <c r="H39" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J39">
         <v>1</v>
@@ -2108,7 +2114,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C40" t="s">
         <v>3</v>
@@ -2126,10 +2132,10 @@
         <v>23</v>
       </c>
       <c r="H40" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I40" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J40">
         <v>1</v>
@@ -2140,7 +2146,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C41" t="s">
         <v>3</v>
@@ -2158,10 +2164,10 @@
         <v>23</v>
       </c>
       <c r="H41" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J41">
         <v>1</v>
@@ -2172,7 +2178,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C42" t="s">
         <v>3</v>
@@ -2190,10 +2196,10 @@
         <v>24</v>
       </c>
       <c r="H42" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J42">
         <v>1</v>
@@ -2204,7 +2210,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C43" t="s">
         <v>3</v>
@@ -2222,10 +2228,10 @@
         <v>24</v>
       </c>
       <c r="H43" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J43">
         <v>1</v>
@@ -2236,7 +2242,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C44" t="s">
         <v>3</v>
@@ -2254,10 +2260,10 @@
         <v>24</v>
       </c>
       <c r="H44" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I44" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J44">
         <v>1</v>
@@ -2268,7 +2274,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C45" t="s">
         <v>3</v>
@@ -2286,10 +2292,10 @@
         <v>25</v>
       </c>
       <c r="H45" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J45">
         <v>1</v>
@@ -2300,7 +2306,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C46" t="s">
         <v>3</v>
@@ -2318,10 +2324,10 @@
         <v>25</v>
       </c>
       <c r="H46" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J46">
         <v>1</v>
@@ -2332,7 +2338,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C47" t="s">
         <v>3</v>
@@ -2350,10 +2356,10 @@
         <v>25</v>
       </c>
       <c r="H47" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J47">
         <v>1</v>
@@ -2364,7 +2370,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C48" t="s">
         <v>3</v>
@@ -2382,10 +2388,10 @@
         <v>25</v>
       </c>
       <c r="H48" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I48" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J48">
         <v>1</v>
@@ -2396,7 +2402,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C49" t="s">
         <v>3</v>
@@ -2414,10 +2420,10 @@
         <v>25</v>
       </c>
       <c r="H49" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I49" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J49">
         <v>1</v>
@@ -2428,7 +2434,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C50" t="s">
         <v>3</v>
@@ -2446,10 +2452,10 @@
         <v>25</v>
       </c>
       <c r="H50" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J50">
         <v>1</v>
@@ -2460,7 +2466,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C51" t="s">
         <v>3</v>
@@ -2478,10 +2484,10 @@
         <v>26</v>
       </c>
       <c r="H51" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I51" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J51">
         <v>1</v>
@@ -2492,7 +2498,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C52" t="s">
         <v>3</v>
@@ -2510,10 +2516,10 @@
         <v>26</v>
       </c>
       <c r="H52" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I52" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J52">
         <v>1</v>
@@ -2524,7 +2530,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C53" t="s">
         <v>3</v>
@@ -2542,10 +2548,10 @@
         <v>26</v>
       </c>
       <c r="H53" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I53" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J53">
         <v>1</v>
@@ -2556,7 +2562,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C54" t="s">
         <v>3</v>
@@ -2574,10 +2580,10 @@
         <v>26</v>
       </c>
       <c r="H54" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I54" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J54">
         <v>1</v>
@@ -2588,7 +2594,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C55" t="s">
         <v>3</v>
@@ -2606,10 +2612,10 @@
         <v>26</v>
       </c>
       <c r="H55" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I55" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J55">
         <v>1</v>
@@ -2620,7 +2626,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C56" t="s">
         <v>3</v>
@@ -2638,10 +2644,10 @@
         <v>26</v>
       </c>
       <c r="H56" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I56" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J56">
         <v>1</v>
@@ -2670,10 +2676,10 @@
         <v>27</v>
       </c>
       <c r="H57" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I57" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J57">
         <v>1</v>
@@ -2684,7 +2690,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C58" t="s">
         <v>3</v>
@@ -2702,10 +2708,10 @@
         <v>28</v>
       </c>
       <c r="H58" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I58" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J58">
         <v>1</v>
@@ -2716,7 +2722,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C59" t="s">
         <v>3</v>
@@ -2734,10 +2740,10 @@
         <v>28</v>
       </c>
       <c r="H59" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I59" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J59">
         <v>1</v>
@@ -2748,7 +2754,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C60" t="s">
         <v>3</v>
@@ -2766,10 +2772,10 @@
         <v>28</v>
       </c>
       <c r="H60" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I60" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J60">
         <v>1</v>
@@ -2780,7 +2786,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C61" t="s">
         <v>3</v>
@@ -2798,10 +2804,10 @@
         <v>28</v>
       </c>
       <c r="H61" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I61" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J61">
         <v>1</v>
@@ -2812,7 +2818,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C62" t="s">
         <v>3</v>
@@ -2830,10 +2836,10 @@
         <v>28</v>
       </c>
       <c r="H62" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I62" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J62">
         <v>1</v>
@@ -2844,7 +2850,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C63" t="s">
         <v>3</v>
@@ -2862,10 +2868,10 @@
         <v>29</v>
       </c>
       <c r="H63" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I63" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J63">
         <v>1</v>
@@ -2876,7 +2882,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C64" t="s">
         <v>3</v>
@@ -2894,10 +2900,10 @@
         <v>29</v>
       </c>
       <c r="H64" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I64" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J64">
         <v>1</v>
@@ -2926,10 +2932,10 @@
         <v>30</v>
       </c>
       <c r="H65" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I65" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J65">
         <v>1</v>
@@ -2940,7 +2946,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C66" t="s">
         <v>3</v>
@@ -2958,10 +2964,10 @@
         <v>31</v>
       </c>
       <c r="H66" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I66" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J66">
         <v>1</v>
@@ -2972,7 +2978,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C67" t="s">
         <v>3</v>
@@ -2990,10 +2996,10 @@
         <v>31</v>
       </c>
       <c r="H67" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I67" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J67">
         <v>1</v>
@@ -3004,7 +3010,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C68" t="s">
         <v>3</v>
@@ -3022,10 +3028,10 @@
         <v>32</v>
       </c>
       <c r="H68" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I68" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J68">
         <v>1</v>
@@ -3036,7 +3042,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C69" t="s">
         <v>3</v>
@@ -3054,10 +3060,10 @@
         <v>32</v>
       </c>
       <c r="H69" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I69" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J69">
         <v>1</v>
@@ -3068,7 +3074,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C70" t="s">
         <v>3</v>
@@ -3086,10 +3092,10 @@
         <v>32</v>
       </c>
       <c r="H70" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I70" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J70">
         <v>1</v>
@@ -3100,7 +3106,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C71" t="s">
         <v>3</v>
@@ -3118,10 +3124,10 @@
         <v>32</v>
       </c>
       <c r="H71" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I71" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J71">
         <v>1</v>
@@ -3132,7 +3138,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C72" t="s">
         <v>3</v>
@@ -3150,10 +3156,10 @@
         <v>33</v>
       </c>
       <c r="H72" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I72" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J72">
         <v>1</v>
@@ -3164,7 +3170,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C73" t="s">
         <v>3</v>
@@ -3182,10 +3188,10 @@
         <v>33</v>
       </c>
       <c r="H73" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I73" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J73">
         <v>1</v>
@@ -3196,7 +3202,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C74" t="s">
         <v>3</v>
@@ -3214,10 +3220,10 @@
         <v>34</v>
       </c>
       <c r="H74" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I74" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J74">
         <v>1</v>
@@ -3228,7 +3234,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C75" t="s">
         <v>3</v>
@@ -3246,10 +3252,10 @@
         <v>35</v>
       </c>
       <c r="H75" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I75" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J75">
         <v>1</v>
@@ -3260,7 +3266,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C76" t="s">
         <v>3</v>
@@ -3278,10 +3284,10 @@
         <v>35</v>
       </c>
       <c r="H76" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I76" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J76">
         <v>1</v>
@@ -3292,7 +3298,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C77" t="s">
         <v>3</v>
@@ -3310,10 +3316,10 @@
         <v>35</v>
       </c>
       <c r="H77" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I77" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J77">
         <v>1</v>
@@ -3324,7 +3330,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C78" t="s">
         <v>3</v>
@@ -3342,10 +3348,10 @@
         <v>35</v>
       </c>
       <c r="H78" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I78" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J78">
         <v>1</v>
@@ -3356,7 +3362,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C79" t="s">
         <v>3</v>
@@ -3374,10 +3380,10 @@
         <v>35</v>
       </c>
       <c r="H79" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I79" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J79">
         <v>1</v>
@@ -3388,7 +3394,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C80" t="s">
         <v>3</v>
@@ -3406,10 +3412,10 @@
         <v>36</v>
       </c>
       <c r="H80" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I80" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J80">
         <v>1</v>
@@ -3420,7 +3426,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C81" t="s">
         <v>3</v>
@@ -3438,10 +3444,10 @@
         <v>36</v>
       </c>
       <c r="H81" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I81" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J81">
         <v>1</v>
@@ -3452,7 +3458,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C82" t="s">
         <v>3</v>
@@ -3470,10 +3476,10 @@
         <v>36</v>
       </c>
       <c r="H82" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I82" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J82">
         <v>1</v>
@@ -3484,7 +3490,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C83" t="s">
         <v>3</v>
@@ -3502,10 +3508,10 @@
         <v>37</v>
       </c>
       <c r="H83" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I83" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J83">
         <v>1</v>
@@ -3516,7 +3522,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C84" t="s">
         <v>3</v>
@@ -3534,10 +3540,10 @@
         <v>37</v>
       </c>
       <c r="H84" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I84" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J84">
         <v>1</v>
@@ -3548,7 +3554,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C85" t="s">
         <v>3</v>
@@ -3566,10 +3572,10 @@
         <v>38</v>
       </c>
       <c r="H85" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I85" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J85">
         <v>1</v>
@@ -3580,7 +3586,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C86" t="s">
         <v>3</v>
@@ -3598,10 +3604,10 @@
         <v>38</v>
       </c>
       <c r="H86" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I86" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J86">
         <v>1</v>
@@ -3612,7 +3618,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C87" t="s">
         <v>3</v>
@@ -3630,10 +3636,10 @@
         <v>38</v>
       </c>
       <c r="H87" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I87" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J87">
         <v>1</v>
@@ -3644,7 +3650,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C88" t="s">
         <v>3</v>
@@ -3662,10 +3668,10 @@
         <v>38</v>
       </c>
       <c r="H88" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I88" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J88">
         <v>1</v>
@@ -3676,7 +3682,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C89" t="s">
         <v>3</v>
@@ -3694,10 +3700,10 @@
         <v>38</v>
       </c>
       <c r="H89" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I89" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J89">
         <v>1</v>
@@ -3708,7 +3714,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C90" t="s">
         <v>3</v>
@@ -3726,10 +3732,10 @@
         <v>39</v>
       </c>
       <c r="H90" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I90" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J90">
         <v>1</v>
@@ -3740,7 +3746,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C91" t="s">
         <v>3</v>
@@ -3758,10 +3764,10 @@
         <v>39</v>
       </c>
       <c r="H91" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I91" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J91">
         <v>1</v>
@@ -3772,7 +3778,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C92" t="s">
         <v>3</v>
@@ -3790,10 +3796,10 @@
         <v>39</v>
       </c>
       <c r="H92" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I92" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J92">
         <v>1</v>
@@ -3804,7 +3810,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C93" t="s">
         <v>3</v>
@@ -3822,10 +3828,10 @@
         <v>39</v>
       </c>
       <c r="H93" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I93" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J93">
         <v>1</v>
@@ -3836,7 +3842,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C94" t="s">
         <v>3</v>
@@ -3854,10 +3860,10 @@
         <v>40</v>
       </c>
       <c r="H94" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I94" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J94">
         <v>1</v>
@@ -3868,7 +3874,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C95" t="s">
         <v>3</v>
@@ -3886,10 +3892,10 @@
         <v>41</v>
       </c>
       <c r="H95" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I95" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J95">
         <v>1</v>
@@ -3900,7 +3906,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C96" t="s">
         <v>3</v>
@@ -3918,10 +3924,10 @@
         <v>41</v>
       </c>
       <c r="H96" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I96" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J96">
         <v>1</v>
@@ -3932,7 +3938,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C97" t="s">
         <v>3</v>
@@ -3950,10 +3956,10 @@
         <v>41</v>
       </c>
       <c r="H97" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I97" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J97">
         <v>1</v>
@@ -3964,7 +3970,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C98" t="s">
         <v>3</v>
@@ -3982,16 +3988,17 @@
         <v>41</v>
       </c>
       <c r="H98" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="I98" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J98">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
